--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2492454.312773242</v>
+        <v>2567983.982438047</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>10.11197856605508</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>109.1811391821707</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V4" t="n">
-        <v>218.7977368246738</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -905,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>46.31092991949841</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>124.5792844599804</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>139.6528551206849</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>139.6528551206851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,10 +1147,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>99.37409488986805</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1190,16 +1192,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>51.96963438906823</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>66.1751262068537</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>139.3500692399304</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274142</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0.2617361482153819</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>58.39573344783798</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1624,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1771,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>53.91390732490781</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>174.5030628367627</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>107.5343485526728</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -2053,13 +2055,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>36.47364630631086</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>96.63060094775798</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>80.01796276413337</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>43.87602766265828</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>137.1438937478126</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="27">
@@ -2722,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>19.92239914452828</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>161.9841035960009</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>76.3374999473611</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>161.4046520073173</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3190,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -3238,22 +3240,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>255.1109229976208</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>52.99361528521922</v>
       </c>
     </row>
     <row r="35">
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>128.9003760347469</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>3.295072325548372</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3512,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113182</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3557,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>24.38245625453486</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>101.2130831850508</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.41635432791941</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3913,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,19 +3948,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>29.09084106573953</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>126.9159244190254</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4192,16 +4194,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>27.26009267756289</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1282.700798147047</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2686.93497125453</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2686.93497125453</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2686.93497125453</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2433.173185892622</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2102.110298549051</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>1749.341643278937</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X2" t="n">
-        <v>1749.341643278937</v>
+        <v>2059.43997018698</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>1669.300638211168</v>
       </c>
     </row>
     <row r="3">
@@ -4407,19 +4409,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.1211692320162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V4" t="n">
-        <v>507.1211692320162</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>507.1211692320162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>507.1211692320162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.1211692320162</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1726.57441852865</v>
+        <v>1485.384143294141</v>
       </c>
       <c r="C5" t="n">
-        <v>1357.611901588238</v>
+        <v>1116.421626353729</v>
       </c>
       <c r="D5" t="n">
-        <v>999.3462029814875</v>
+        <v>758.1559277469787</v>
       </c>
       <c r="E5" t="n">
-        <v>999.3462029814875</v>
+        <v>758.1559277469787</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>347.1700229573711</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>333.2466188959621</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X5" t="n">
-        <v>2113.174258592771</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="Y5" t="n">
-        <v>2113.174258592771</v>
+        <v>1871.983983358263</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204941</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4729,43 +4731,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>557.6485750391623</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782191</v>
+        <v>343.360151857325</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782191</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782191</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782191</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>195.0064718412585</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>195.0064718412585</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1164.312709242129</v>
+        <v>902.4179758042685</v>
       </c>
       <c r="C8" t="n">
-        <v>1164.312709242129</v>
+        <v>533.4554588638568</v>
       </c>
       <c r="D8" t="n">
-        <v>806.0470106353782</v>
+        <v>175.1897602571063</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>175.1897602571063</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>168.2442595079029</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>154.3208554464938</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,10 +4822,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>1941.051881282062</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1941.051881282062</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>1941.051881282062</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y8" t="n">
-        <v>1550.91254930625</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4902,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>337.1618402196266</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C10" t="n">
-        <v>337.1618402196266</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>337.1618402196266</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>337.1618402196266</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
         <v>190.2718927217162</v>
@@ -4957,55 +4959,55 @@
         <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>631.8685032349517</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>417.5800800531144</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="W10" t="n">
-        <v>557.9544193631567</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="X10" t="n">
-        <v>557.9544193631567</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y10" t="n">
-        <v>337.1618402196266</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="11">
@@ -5021,31 +5023,31 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5060,13 +5062,13 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5118,25 +5120,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>410.8745301331628</v>
+        <v>412.6079778147083</v>
       </c>
       <c r="L12" t="n">
-        <v>1024.771599890051</v>
+        <v>659.3731057211725</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>966.6932390011342</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1966.019627967827</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>804.0893717830344</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="C13" t="n">
-        <v>804.0893717830344</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="D13" t="n">
-        <v>653.9727323706986</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883055</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
@@ -5197,16 +5199,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>985.7378366132741</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W13" t="n">
-        <v>985.7378366132741</v>
+        <v>1074.171089572591</v>
       </c>
       <c r="X13" t="n">
-        <v>985.7378366132741</v>
+        <v>1074.171089572591</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.7378366132741</v>
+        <v>853.378510429061</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5257,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,10 +5278,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.627437207831</v>
@@ -5303,19 +5305,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5361,19 +5363,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>731.3351829786183</v>
+        <v>990.7828679390639</v>
       </c>
       <c r="C16" t="n">
-        <v>562.3990000507114</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383756</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>1020.752353015579</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W16" t="n">
-        <v>731.3351829786183</v>
+        <v>1211.575447082594</v>
       </c>
       <c r="X16" t="n">
-        <v>731.3351829786183</v>
+        <v>1211.575447082594</v>
       </c>
       <c r="Y16" t="n">
-        <v>731.3351829786183</v>
+        <v>990.7828679390639</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5494,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5516,7 +5518,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5528,10 +5530,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5552,7 +5554,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5595,22 +5597,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>316.9584588710876</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7235867775516</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>973.0255547109413</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="C19" t="n">
-        <v>804.0893717830344</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="D19" t="n">
-        <v>653.9727323706986</v>
+        <v>635.9655670641833</v>
       </c>
       <c r="E19" t="n">
-        <v>506.0596387883055</v>
+        <v>635.9655670641833</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
         <v>359.1696912903951</v>
@@ -5671,16 +5673,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>973.0255547109413</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W19" t="n">
-        <v>973.0255547109413</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="X19" t="n">
-        <v>973.0255547109413</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="Y19" t="n">
-        <v>973.0255547109413</v>
+        <v>786.0822064765191</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5756,46 +5758,46 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>901.6749225845923</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>564.4843764226426</v>
+        <v>3946.684906976818</v>
       </c>
       <c r="C22" t="n">
-        <v>395.5481934947357</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="D22" t="n">
-        <v>395.5481934947357</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U22" t="n">
-        <v>1290.23449949573</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="V22" t="n">
-        <v>1035.550011289843</v>
+        <v>4356.322922705074</v>
       </c>
       <c r="W22" t="n">
-        <v>746.1328412528824</v>
+        <v>4356.322922705074</v>
       </c>
       <c r="X22" t="n">
-        <v>746.1328412528824</v>
+        <v>4128.333371807057</v>
       </c>
       <c r="Y22" t="n">
-        <v>746.1328412528824</v>
+        <v>4128.333371807057</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766202</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.683698656582</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N24" t="n">
-        <v>1433.546326320615</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O24" t="n">
-        <v>2005.509969085868</v>
+        <v>2292.946699347402</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4027.511131991093</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C25" t="n">
-        <v>4027.511131991093</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>3877.394492578758</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3738.865306974907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3738.865306974907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014291</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929844</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>4437.14914771935</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>4437.14914771935</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V25" t="n">
-        <v>4437.14914771935</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="W25" t="n">
-        <v>4437.14914771935</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="X25" t="n">
-        <v>4209.159596821333</v>
+        <v>681.3817128053296</v>
       </c>
       <c r="Y25" t="n">
-        <v>4209.159596821333</v>
+        <v>460.5891336617995</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6233,43 +6235,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>2786.879505108312</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>3262.052667528206</v>
       </c>
       <c r="M27" t="n">
-        <v>966.6932390011339</v>
+        <v>3569.372800808168</v>
       </c>
       <c r="N27" t="n">
-        <v>1346.676219880508</v>
+        <v>3899.235428472201</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>4568.69918977486</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.72167055707</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>825.3747459653033</v>
+        <v>3888.843353788981</v>
       </c>
       <c r="C28" t="n">
-        <v>825.3747459653033</v>
+        <v>3888.843353788981</v>
       </c>
       <c r="D28" t="n">
-        <v>675.2581065529675</v>
+        <v>3738.726714376646</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705744</v>
+        <v>3590.813620794253</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S28" t="n">
-        <v>1335.295963895275</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T28" t="n">
-        <v>1335.295963895275</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="U28" t="n">
-        <v>1046.167325108833</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="V28" t="n">
-        <v>1046.167325108833</v>
+        <v>4406.250074723959</v>
       </c>
       <c r="W28" t="n">
-        <v>1046.167325108833</v>
+        <v>4116.832904686999</v>
       </c>
       <c r="X28" t="n">
-        <v>1046.167325108833</v>
+        <v>3888.843353788981</v>
       </c>
       <c r="Y28" t="n">
-        <v>825.3747459653033</v>
+        <v>3888.843353788981</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,22 +6454,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6476,10 +6478,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6488,25 +6490,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6545,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864554</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N30" t="n">
-        <v>1538.857683528586</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O30" t="n">
-        <v>2208.321444831246</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>4412.072442972746</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>4243.136260044839</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>4093.019620632504</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>3945.10652705011</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>3798.2165795522</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S31" t="n">
-        <v>1335.881268530309</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T31" t="n">
-        <v>1112.095853319815</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U31" t="n">
-        <v>822.9672145333731</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="V31" t="n">
-        <v>568.2827263274862</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="W31" t="n">
-        <v>278.8655562905255</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="X31" t="n">
-        <v>278.8655562905255</v>
+        <v>4632.865022116276</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>4412.072442972746</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6701,46 +6703,46 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,13 +6767,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6780,19 +6782,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>485.5200852635876</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L33" t="n">
-        <v>1099.417155020476</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M33" t="n">
-        <v>1406.737288300438</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
         <v>2536.440602918915</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>528.105874218302</v>
+        <v>990.7828679390639</v>
       </c>
       <c r="C34" t="n">
-        <v>359.1696912903951</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D34" t="n">
-        <v>359.1696912903951</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E34" t="n">
-        <v>359.1696912903951</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F34" t="n">
-        <v>359.1696912903951</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
         <v>208.7516828383384</v>
@@ -6862,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6874,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>817.5230442552627</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V34" t="n">
-        <v>817.5230442552627</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W34" t="n">
-        <v>528.105874218302</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X34" t="n">
-        <v>528.105874218302</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="Y34" t="n">
-        <v>528.105874218302</v>
+        <v>990.7828679390639</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6941,46 +6943,46 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.683698656582</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N36" t="n">
-        <v>1725.969903867171</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O36" t="n">
-        <v>2005.509969085868</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P36" t="n">
         <v>2525.810590821615</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>712.4440896858632</v>
+        <v>3904.075074409314</v>
       </c>
       <c r="C37" t="n">
-        <v>543.5079067579563</v>
+        <v>3904.075074409314</v>
       </c>
       <c r="D37" t="n">
-        <v>543.5079067579563</v>
+        <v>3753.958434996978</v>
       </c>
       <c r="E37" t="n">
-        <v>395.5948131755632</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="F37" t="n">
-        <v>395.5948131755632</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G37" t="n">
-        <v>227.4194914953838</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>4857.5262171299</v>
       </c>
       <c r="T37" t="n">
-        <v>1187.92115703528</v>
+        <v>4857.5262171299</v>
       </c>
       <c r="U37" t="n">
-        <v>1187.92115703528</v>
+        <v>4568.397578343458</v>
       </c>
       <c r="V37" t="n">
-        <v>933.2366688293934</v>
+        <v>4313.713090137571</v>
       </c>
       <c r="W37" t="n">
-        <v>933.2366688293934</v>
+        <v>4313.713090137571</v>
       </c>
       <c r="X37" t="n">
-        <v>933.2366688293934</v>
+        <v>4085.723539239554</v>
       </c>
       <c r="Y37" t="n">
-        <v>712.4440896858632</v>
+        <v>4085.723539239554</v>
       </c>
     </row>
     <row r="38">
@@ -7160,25 +7162,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7193,7 +7195,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7239,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.043068977054</v>
+        <v>1006.183580119175</v>
       </c>
       <c r="N39" t="n">
-        <v>1999.905696641086</v>
+        <v>1336.046207783208</v>
       </c>
       <c r="O39" t="n">
-        <v>2320.788110039405</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P39" t="n">
         <v>2525.810590821615</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>732.358329063101</v>
+        <v>609.3753482118782</v>
       </c>
       <c r="C40" t="n">
-        <v>563.4221461351941</v>
+        <v>440.4391652839713</v>
       </c>
       <c r="D40" t="n">
-        <v>413.3055067228584</v>
+        <v>440.4391652839713</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>440.4391652839713</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7339,7 +7341,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U40" t="n">
-        <v>1396.680832997245</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="V40" t="n">
-        <v>1141.996344791358</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="W40" t="n">
-        <v>1141.996344791358</v>
+        <v>609.3753482118782</v>
       </c>
       <c r="X40" t="n">
-        <v>914.0067938933407</v>
+        <v>609.3753482118782</v>
       </c>
       <c r="Y40" t="n">
-        <v>914.0067938933407</v>
+        <v>609.3753482118782</v>
       </c>
     </row>
     <row r="41">
@@ -7421,16 +7423,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7451,10 +7453,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7476,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7491,22 +7493,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M42" t="n">
         <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2507.259996875531</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>266.1532743881928</v>
+        <v>528.105874218302</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7573,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U43" t="n">
-        <v>1098.712528333286</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V43" t="n">
-        <v>1098.712528333286</v>
+        <v>1158.536469090089</v>
       </c>
       <c r="W43" t="n">
-        <v>809.2953582963255</v>
+        <v>1158.536469090089</v>
       </c>
       <c r="X43" t="n">
-        <v>581.3058073983082</v>
+        <v>930.5469181920719</v>
       </c>
       <c r="Y43" t="n">
-        <v>360.513228254778</v>
+        <v>709.7543390485417</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7713,37 +7715,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L45" t="n">
-        <v>1026.505047571597</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M45" t="n">
-        <v>1722.015429253975</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2103.010087623275</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
         <v>97.21709146028584</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V46" t="n">
-        <v>1209.787631771461</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="W46" t="n">
-        <v>920.3704617344999</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>692.3809108364826</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>692.3809108364826</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8541,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783517</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>124.3400780863228</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>159.0121003135234</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,13 +9011,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>104.8749102765748</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,28 +9245,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>29.47535963978211</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>360.5026862907245</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,28 +9482,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>124.3400780863221</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9647,7 +9649,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119834</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9717,28 +9719,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>295.3773510571273</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>38.86002301949887</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,25 +9953,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>230.7151863772021</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>50.62661940943605</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10203,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>124.3400780863231</v>
+        <v>43.65987261462453</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10358,7 +10360,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119823</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10428,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>199.7396287231155</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>124.3400780863224</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.661214550452</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10665,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,10 +10676,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>295.3773510571273</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>80.50021372615169</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10905,19 +10907,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>165.9802687929759</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>41.75994765618367</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11069,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119823</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11148,19 +11150,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>29.47535963978184</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>392.1113620226434</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>20.63789864135373</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>251.8759071756126</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>228.127264888753</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>198.2237359989202</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>112.0199354998283</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,19 +23892,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>37.88669947025842</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23941,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>215.6639970175171</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -24133,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>189.6067514508194</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>172.1196805596946</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>135.955952519279</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>9.290068898756545</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24610,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>125.498648878403</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>35.93670638760236</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>90.15606851601649</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>36.51615797628597</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25126,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>31.12642940095657</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>165.5910380668756</v>
       </c>
     </row>
     <row r="35">
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>20.0134523327892</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>194.6257376580549</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>121.0385917683964</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>185.0242692135266</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.41562585401789</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,19 +25836,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>223.0468022580885</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.9160557629119</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26071,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -26080,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>259.2629056590281</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371446</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371446</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>810573.8713371446</v>
+        <v>810573.8713371444</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371444</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371444</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371444</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371443</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982127</v>
+      </c>
+      <c r="C2" t="n">
         <v>615781.3273982126</v>
       </c>
-      <c r="C2" t="n">
-        <v>615781.3273982129</v>
-      </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
         <v>586543.589606563</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065636</v>
       </c>
       <c r="G2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065634</v>
       </c>
       <c r="H2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="I2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065626</v>
       </c>
       <c r="J2" t="n">
         <v>586543.589606563</v>
       </c>
       <c r="K2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="L2" t="n">
         <v>586543.5896065627</v>
       </c>
-      <c r="L2" t="n">
-        <v>586543.5896065629</v>
-      </c>
       <c r="M2" t="n">
+        <v>586543.5896065626</v>
+      </c>
+      <c r="N2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="O2" t="n">
+        <v>586543.5896065626</v>
+      </c>
+      <c r="P2" t="n">
         <v>586543.589606563</v>
-      </c>
-      <c r="N2" t="n">
-        <v>586543.5896065633</v>
-      </c>
-      <c r="O2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="P2" t="n">
-        <v>586543.5896065631</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768963</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26423,43 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230229</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
+        <v>29303.54555230231</v>
+      </c>
+      <c r="M4" t="n">
+        <v>29303.54555230231</v>
+      </c>
+      <c r="N4" t="n">
+        <v>29303.5455523023</v>
+      </c>
+      <c r="O4" t="n">
+        <v>29303.54555230231</v>
+      </c>
+      <c r="P4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="M4" t="n">
-        <v>29303.54555230234</v>
-      </c>
-      <c r="N4" t="n">
-        <v>29303.54555230233</v>
-      </c>
-      <c r="O4" t="n">
-        <v>29303.54555230233</v>
-      </c>
-      <c r="P4" t="n">
-        <v>29303.54555230232</v>
       </c>
     </row>
     <row r="5">
@@ -26473,34 +26475,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-231536.4072015674</v>
+        <v>-231536.4072015675</v>
       </c>
       <c r="C6" t="n">
-        <v>358431.4720129772</v>
+        <v>358431.472012977</v>
       </c>
       <c r="D6" t="n">
-        <v>358431.4720129769</v>
+        <v>358431.4720129768</v>
       </c>
       <c r="E6" t="n">
-        <v>-59907.31837135216</v>
+        <v>-59907.31837135226</v>
       </c>
       <c r="F6" t="n">
-        <v>465252.7181055441</v>
+        <v>465252.7181055448</v>
       </c>
       <c r="G6" t="n">
-        <v>465252.7181055441</v>
+        <v>465252.7181055443</v>
       </c>
       <c r="H6" t="n">
         <v>465252.7181055439</v>
@@ -26546,22 +26548,22 @@
         <v>288829.498912951</v>
       </c>
       <c r="K6" t="n">
-        <v>465252.7181055438</v>
+        <v>465252.718105544</v>
       </c>
       <c r="L6" t="n">
         <v>465252.7181055439</v>
       </c>
       <c r="M6" t="n">
-        <v>330451.7028717067</v>
+        <v>330451.7028717065</v>
       </c>
       <c r="N6" t="n">
-        <v>465252.7181055443</v>
+        <v>465252.7181055442</v>
       </c>
       <c r="O6" t="n">
-        <v>465252.7181055439</v>
+        <v>465252.7181055438</v>
       </c>
       <c r="P6" t="n">
-        <v>465252.7181055442</v>
+        <v>465252.7181055441</v>
       </c>
     </row>
   </sheetData>
@@ -26735,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26762,22 +26764,22 @@
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26820,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26957,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>452.6387412370137</v>
@@ -26972,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>44.36642400875663</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>260.5499614962984</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,13 +27593,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V4" t="n">
-        <v>33.33990649915418</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27625,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>360.565115822213</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>199.3434883043768</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>7.012336859472981</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>78.93179823140972</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>224.5486778744891</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>275.7826240810667</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28034,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>80.49006577330412</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>147.1729290966606</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30238,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-5.142369289011372e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31868,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32342,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,37 +32475,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32579,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33175,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,10 +35029,10 @@
         <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>274.915516674262</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>366.1055152450481</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,13 +35731,13 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>609.7603912467498</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>438.0694836745878</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
@@ -35744,7 +35746,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>180.0507982277213</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>609.7603912467489</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M21" t="n">
-        <v>406.4618263286133</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>457.5346514843351</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36367,7 +36369,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408111</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
         <v>713.1546070951472</v>
@@ -36437,28 +36439,28 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>577.7410532982354</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>245.9534379510236</v>
       </c>
       <c r="Q24" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,7 +36603,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>479.9728913332265</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>383.821192807449</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>88.01303278507413</v>
@@ -36835,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>331.4334930178478</v>
+        <v>250.7532875461493</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>350.3150673110547</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>457.5346514843354</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109088</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>628.5719244551402</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>362.8639159672599</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>476.4046458434423</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>324.1236498972918</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>438.0694836745878</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>117.488392424856</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>702.5357390731098</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>227.7313135728785</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2560966.967546335</v>
+        <v>2565906.230395368</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -664,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>130.4588318996847</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>307.7676307244759</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>142.6307342906313</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>36.78424627109328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>52.27666618500091</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>139.3243393802455</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>136.128638728132</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,16 +1068,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>162.0255331764654</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>13.62152856464996</v>
       </c>
       <c r="G8" t="n">
-        <v>401.3550844723776</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.7210176553111</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>247.9190547664228</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>112.7232111520179</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>3.582082778545252e-12</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.64843562452383</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>85.8512317625306</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505273999</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>71.18858666156088</v>
       </c>
       <c r="S19" t="n">
-        <v>179.0205566758988</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2140,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.64843562452408</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>145.8998232290783</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>200.0658894739852</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051985</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>42.96758834642525</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>70.02468195575985</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>80.72499518541034</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>125.9656172533007</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>122.670068214939</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,16 +4194,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>176.8688121773847</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982757</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>936.2491605982757</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1881.118241157406</v>
       </c>
     </row>
     <row r="3">
@@ -4409,19 +4409,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>509.3247150619588</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="C4" t="n">
-        <v>340.388532134052</v>
+        <v>344.9043780966903</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="Y4" t="n">
-        <v>690.9731798921986</v>
+        <v>513.8405610245972</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1005.372199209267</v>
+        <v>1005.372199209268</v>
       </c>
       <c r="C5" t="n">
-        <v>1005.372199209267</v>
+        <v>1005.372199209268</v>
       </c>
       <c r="D5" t="n">
-        <v>1005.372199209267</v>
+        <v>1005.372199209268</v>
       </c>
       <c r="E5" t="n">
-        <v>619.5839466110231</v>
+        <v>1005.372199209268</v>
       </c>
       <c r="F5" t="n">
-        <v>208.5980418214155</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>194.6746377600064</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>194.6746377600064</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,10 +4585,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4612,7 +4612,7 @@
         <v>1782.111371249201</v>
       </c>
       <c r="Y5" t="n">
-        <v>1391.972039273389</v>
+        <v>1391.97203927339</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>507.3364050629041</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C7" t="n">
-        <v>507.3364050629041</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8327295799424</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>399.5905718782843</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2310.5492509541</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C8" t="n">
-        <v>1941.586734013689</v>
+        <v>1710.380556858353</v>
       </c>
       <c r="D8" t="n">
-        <v>1583.321035406938</v>
+        <v>1352.114858251602</v>
       </c>
       <c r="E8" t="n">
-        <v>1197.532782808694</v>
+        <v>966.3266056533578</v>
       </c>
       <c r="F8" t="n">
-        <v>786.5468780190865</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="9">
@@ -4880,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4898,10 +4898,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4998,16 +4998,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>477.7056965635832</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694738</v>
+        <v>477.7056965635832</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694738</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="Y10" t="n">
-        <v>217.9192350259437</v>
+        <v>249.7161456655658</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5035,7 +5035,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5044,7 +5044,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5086,7 +5086,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>526.9050513325894</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>357.9688684046826</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581998</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5202,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>1044.311772267567</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>754.8946022306068</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>526.9050513325894</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>526.9050513325894</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823795</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5290,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5299,7 +5299,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5311,16 +5311,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636247</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>324.3840174432673</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C16" t="n">
-        <v>155.4478345153604</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D16" t="n">
-        <v>155.4478345153604</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>155.4478345153604</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>155.4478345153604</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150545</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X16" t="n">
-        <v>726.8250614170372</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="Y16" t="n">
-        <v>506.0324822735071</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5503,61 +5503,61 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155889</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822454</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571605</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636243</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307618</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526315</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2358.217138262062</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>395.2468244550147</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D19" t="n">
-        <v>245.1301850426789</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980059</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585741</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557897</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557897</v>
+        <v>1427.008607263396</v>
       </c>
       <c r="S19" t="n">
-        <v>1318.087425430727</v>
+        <v>1227.088597178949</v>
       </c>
       <c r="T19" t="n">
-        <v>1094.302010220232</v>
+        <v>1003.303181968455</v>
       </c>
       <c r="U19" t="n">
-        <v>1094.302010220232</v>
+        <v>714.1745431820127</v>
       </c>
       <c r="V19" t="n">
-        <v>1094.302010220232</v>
+        <v>714.1745431820127</v>
       </c>
       <c r="W19" t="n">
-        <v>804.8848401832718</v>
+        <v>714.1745431820127</v>
       </c>
       <c r="X19" t="n">
-        <v>576.8952892852544</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y19" t="n">
-        <v>576.8952892852544</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5776,22 +5776,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>324.3840174432676</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C22" t="n">
-        <v>155.4478345153607</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D22" t="n">
-        <v>155.4478345153607</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E22" t="n">
-        <v>155.4478345153607</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F22" t="n">
-        <v>155.4478345153607</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>816.762183007535</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150548</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X22" t="n">
-        <v>726.8250614170374</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y22" t="n">
-        <v>506.0324822735073</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
@@ -6013,28 +6013,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>985.8343999908507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>985.8343999908507</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>696.41722995389</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>468.4276790558727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,40 +6205,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6250,7 +6250,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>413.3055067228584</v>
+        <v>699.5778825909698</v>
       </c>
       <c r="C28" t="n">
-        <v>413.3055067228584</v>
+        <v>656.1762782006413</v>
       </c>
       <c r="D28" t="n">
-        <v>413.3055067228584</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1428.184268582387</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1139.055629795946</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>884.3711415900586</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W28" t="n">
-        <v>594.9539715530981</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X28" t="n">
-        <v>594.9539715530981</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.9539715530981</v>
+        <v>699.5778825909698</v>
       </c>
     </row>
     <row r="29">
@@ -6442,52 +6442,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6651,22 +6651,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6679,46 +6679,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6885,19 +6885,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
         <v>97.21709146028584</v>
@@ -6937,7 +6937,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>644.700260475621</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>475.7640775477141</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>325.6474381353784</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>1047.141304449391</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>826.3487253058607</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822467</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,13 +7192,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>696.2811958984814</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1171.758263247898</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1171.758263247898</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>917.0737750420116</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>917.0737750420116</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>917.0737750420116</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>696.2811958984814</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7405,25 +7405,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7432,31 +7432,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>1263.932007306658</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>1263.932007306658</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>1263.932007306658</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>1043.139428163128</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X46" t="n">
-        <v>213.9110074201016</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,10 +8069,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720747</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776759</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>180.023701673589</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445223</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298014</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>180.0237016735866</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714835</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11378,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>182.0340742867944</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>35.89226186619445</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,10 +23664,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.8451328388537</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>132.7334215895642</v>
       </c>
     </row>
     <row r="17">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>38.77576574223193</v>
       </c>
       <c r="S19" t="n">
-        <v>18.90025330770442</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.8451328388535</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>140.3375291694991</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24381,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>86.17146292459211</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>124.2792327522026</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>151.5228791026294</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>65.70896746115884</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>95.58194380508859</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>129.467575108889</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>29.89407122271365</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>48.8408432116525</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371444</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371446</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371446</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.327398213</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="F2" t="n">
         <v>586543.5896065626</v>
       </c>
       <c r="G2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="H2" t="n">
         <v>586543.5896065626</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>586543.589606563</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="K2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="L2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="M2" t="n">
         <v>586543.5896065627</v>
       </c>
-      <c r="J2" t="n">
-        <v>586543.5896065631</v>
-      </c>
-      <c r="K2" t="n">
-        <v>586543.5896065626</v>
-      </c>
-      <c r="L2" t="n">
-        <v>586543.5896065626</v>
-      </c>
-      <c r="M2" t="n">
-        <v>586543.5896065626</v>
-      </c>
       <c r="N2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="O2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="P2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065627</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.352540372565272e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,25 +26420,25 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230241</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
@@ -26453,13 +26453,13 @@
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26484,22 +26484,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-231536.4072015673</v>
+        <v>-231536.4072015677</v>
       </c>
       <c r="C6" t="n">
-        <v>358431.472012977</v>
+        <v>358431.4720129773</v>
       </c>
       <c r="D6" t="n">
-        <v>358431.472012977</v>
+        <v>358431.4720129772</v>
       </c>
       <c r="E6" t="n">
-        <v>-60881.90963107385</v>
+        <v>-60004.77749732393</v>
       </c>
       <c r="F6" t="n">
-        <v>464278.126845822</v>
+        <v>465155.2589795715</v>
       </c>
       <c r="G6" t="n">
-        <v>464278.1268458222</v>
+        <v>465155.2589795717</v>
       </c>
       <c r="H6" t="n">
-        <v>464278.126845822</v>
+        <v>465155.2589795715</v>
       </c>
       <c r="I6" t="n">
-        <v>464278.1268458222</v>
+        <v>465155.2589795719</v>
       </c>
       <c r="J6" t="n">
-        <v>287854.9076532294</v>
+        <v>288732.0397869788</v>
       </c>
       <c r="K6" t="n">
-        <v>464278.126845822</v>
+        <v>465155.2589795718</v>
       </c>
       <c r="L6" t="n">
-        <v>464278.126845822</v>
+        <v>465155.2589795717</v>
       </c>
       <c r="M6" t="n">
-        <v>329477.1116119848</v>
+        <v>330354.2437457345</v>
       </c>
       <c r="N6" t="n">
-        <v>464278.1268458224</v>
+        <v>465155.2589795716</v>
       </c>
       <c r="O6" t="n">
-        <v>464278.1268458222</v>
+        <v>465155.2589795717</v>
       </c>
       <c r="P6" t="n">
-        <v>464278.1268458224</v>
+        <v>465155.2589795717</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541001</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054540999</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>224.2242097209983</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>99.10841501723559</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>5.98473872758106</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>181.8004070810015</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>354.5993795567105</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>12.60697686461572</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>12.48683429008031</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>5.284269082585496</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>393.2545171770615</v>
       </c>
       <c r="G8" t="n">
-        <v>12.42908554841739</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>166.1109625266262</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>4.218588557405241</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28256,7 +28256,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-1.298977755714201e-12</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28569,7 +28569,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28760,7 +28760,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041486</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565516</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104645</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361486</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32390,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263749</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415088</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>609.76039124675</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092005</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221114</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349799</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953154</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560241</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.424377050466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980126</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411079</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714616</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.036734458663</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515205982</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187469</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349582</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,10 +36454,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>268.0367344586608</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36849,13 +36849,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37563,10 +37563,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>464.3977765279026</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
